--- a/biology/Médecine/Hématome_décidual_marginal/Hématome_décidual_marginal.xlsx
+++ b/biology/Médecine/Hématome_décidual_marginal/Hématome_décidual_marginal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matome_d%C3%A9cidual_marginal</t>
+          <t>Hématome_décidual_marginal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hématome décidual marginal est une complication de la grossesse survenant lorsqu'une portion marginale du placenta se décolle, ce qui entraîne un saignement entre placenta et utérus.
 Ce processus est proche de celui de l'hématome rétro-placentaire, mais n'a pas des conséquences aussi graves : l'hématome décidual marginal est plus fréquent, et n'entraîne pas de souffrance fœtale dans la très grande majorité des cas (l'hématome étant périphérique et de petite taille, il ne peut pas altérer les échanges materno-fœtaux). Il peut cependant y avoir un risque de retard de croissance intra utérin (RCIU), rupture prématurée des membranes et accouchement prématuré. Le risque de décollement brutal existe.
